--- a/13/2/1/2/Deuda por instrumento 2002 a 2021 - Trimestral.xlsx
+++ b/13/2/1/2/Deuda por instrumento 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3596,6 +3599,44 @@
         <v>1552</v>
       </c>
     </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>97831</v>
+      </c>
+      <c r="C79">
+        <v>96245</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>1567</v>
+      </c>
+      <c r="F79">
+        <v>69174</v>
+      </c>
+      <c r="G79">
+        <v>69155</v>
+      </c>
+      <c r="H79">
+        <v>19</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>28657</v>
+      </c>
+      <c r="K79">
+        <v>27090</v>
+      </c>
+      <c r="L79">
+        <v>1567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
